--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>Orange LED</t>
+  </si>
+  <si>
+    <t>Range Sensors</t>
+  </si>
+  <si>
+    <t>Bluetooth Module</t>
+  </si>
+  <si>
+    <t>Adjustable Infrared Sensor Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEN0019 </t>
+  </si>
+  <si>
+    <t>http://www.dfrobot.com/index.php?route=product/product&amp;path=36_55&amp;product_id=114</t>
+  </si>
+  <si>
+    <t>Piezo Speaker</t>
+  </si>
+  <si>
+    <t>Horn</t>
   </si>
 </sst>
 </file>
@@ -75,10 +96,18 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,14 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -129,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:F10" totalsRowShown="0">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Product Name"/>
     <tableColumn id="2" name="Product Number"/>
@@ -406,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +451,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,11 +531,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>